--- a/Supporting_Information.xlsx
+++ b/Supporting_Information.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasthiros/Documents/Research_Projects/Riverton_nt/Parameter_Estimatation_Paper/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E86CA-CB29-0C4A-84B8-63B18AF00D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7A629-D2C5-7D40-A0CA-70683D162175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2600" windowWidth="28500" windowHeight="15720" activeTab="4" xr2:uid="{243302ED-AB72-E549-AFE2-F8C3E9A2E95A}"/>
+    <workbookView xWindow="3260" yWindow="2600" windowWidth="28500" windowHeight="15720" activeTab="3" xr2:uid="{243302ED-AB72-E549-AFE2-F8C3E9A2E95A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
-    <sheet name="SI1_Synthetic_Test_Tracer_Input" sheetId="1" r:id="rId2"/>
-    <sheet name="SI2_Riverton_Tracer_Input" sheetId="2" r:id="rId3"/>
-    <sheet name="SI3_Synthetic_Test_Obs" sheetId="3" r:id="rId4"/>
-    <sheet name="SI3_Riverton_Obs" sheetId="4" r:id="rId5"/>
+    <sheet name="S1_Synthetic_Test_Tracer_Input" sheetId="1" r:id="rId2"/>
+    <sheet name="S2_Riverton_Tracer_Input" sheetId="2" r:id="rId3"/>
+    <sheet name="S3_Synthetic_Test_Obs" sheetId="3" r:id="rId4"/>
+    <sheet name="S4_Riverton_Obs" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -108,16 +108,16 @@
     <t>Riverton site environmental tracer observations.</t>
   </si>
   <si>
-    <t>SI1_Synthetic_Test_Tracer_Input</t>
+    <t>S1_Synthetic_Test_Tracer_Input</t>
   </si>
   <si>
-    <t>SI2_Riverton_Tracer_Input</t>
+    <t>S2_Riverton_Tracer_Input</t>
   </si>
   <si>
-    <t>SI3_Synthetic_Test_Obs</t>
+    <t>S3_Synthetic_Test_Obs</t>
   </si>
   <si>
-    <t>SI4_Riverton_Obs</t>
+    <t>I4_Riverton_Obs</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607D97B5-CF4A-0141-B4C0-D79C8C0DCD92}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3832,7 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF68071-EFE2-CC45-921C-3083A1B62690}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
